--- a/Proyecto Aluna - Recopilación de información.xlsx
+++ b/Proyecto Aluna - Recopilación de información.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma de actividades" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="OSO III - Actividades" sheetId="12" r:id="rId9"/>
     <sheet name="OSO III - HORARIO DE CLASE" sheetId="13" r:id="rId10"/>
     <sheet name="OSO III  - Listado de  alumnos" sheetId="14" r:id="rId11"/>
+    <sheet name="DELFIN I - ACTIVIDADES" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -71,8 +72,32 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="I9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Siempre esta la misma cantidad de niños</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="277">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -822,6 +847,87 @@
   </si>
   <si>
     <t>ÉXITO</t>
+  </si>
+  <si>
+    <t>Tarde</t>
+  </si>
+  <si>
+    <t>MODULO JAPON</t>
+  </si>
+  <si>
+    <t>PROGRAMA DELFIN I</t>
+  </si>
+  <si>
+    <t>Fara Batista</t>
+  </si>
+  <si>
+    <t>Elmer Campillo</t>
+  </si>
+  <si>
+    <t>Everlydes Lourduy</t>
+  </si>
+  <si>
+    <t>Sandra Cano</t>
+  </si>
+  <si>
+    <t>Ubaldina Macea</t>
+  </si>
+  <si>
+    <t>Pre- matematica</t>
+  </si>
+  <si>
+    <t>Pre - lectura</t>
+  </si>
+  <si>
+    <t>Pre - escritura</t>
+  </si>
+  <si>
+    <t>habidades de la vida cotidiana</t>
+  </si>
+  <si>
+    <t>Socio afectiva</t>
+  </si>
+  <si>
+    <t>Se enseña la caligrafia, coger dictados.</t>
+  </si>
+  <si>
+    <t>Para que ellos se han mas independientes autonomos para que ellos tenga auto-cuidado, higiene, aseo oral; para que sean mas independientes</t>
+  </si>
+  <si>
+    <t>Se enseña lo basico de la matematicas en una forma dinamica como conjuntos, asociaones</t>
+  </si>
+  <si>
+    <t>se enseña las vocales, sonidos, etc</t>
+  </si>
+  <si>
+    <t>Se les enseña regado de plantas el cuidado, sembrar una planta</t>
+  </si>
+  <si>
+    <t>Ciencias naturales</t>
+  </si>
+  <si>
+    <t>Educacion fisica</t>
+  </si>
+  <si>
+    <t>Se les enseña un poco de la sexualidad y de los  valores</t>
+  </si>
+  <si>
+    <t>1:00 - 1:30</t>
+  </si>
+  <si>
+    <t>1:30 - 2:00</t>
+  </si>
+  <si>
+    <t>2:00 - 3:00</t>
+  </si>
+  <si>
+    <t>3:00 - 3:30</t>
+  </si>
+  <si>
+    <t>3:30 - 4:30</t>
+  </si>
+  <si>
+    <t>4:30 - 5:00</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1678,153 +1784,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="21" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1848,12 +1807,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1865,6 +1818,162 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="21" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2319,6 +2428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:M56"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
@@ -2353,10 +2463,10 @@
       <c r="M3" s="4"/>
     </row>
     <row r="5" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="111"/>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -2429,7 +2539,7 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="107" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="18"/>
@@ -2445,7 +2555,7 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="2:13" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="95"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="19" t="s">
         <v>7</v>
       </c>
@@ -2664,9 +2774,9 @@
       <c r="D40" s="14"/>
     </row>
     <row r="41" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="B41" s="96"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7"/>
@@ -2678,9 +2788,9 @@
       <c r="M41" s="7"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="96"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="15"/>
@@ -2732,7 +2842,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Hoja10">
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="B2:G10"/>
@@ -2772,32 +2882,32 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="145" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="145" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="145" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="132" t="s">
+      <c r="F3" s="145" t="s">
         <v>219</v>
       </c>
-      <c r="G3" s="132" t="s">
+      <c r="G3" s="145" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="135"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="92" t="s">
@@ -2843,19 +2953,19 @@
       <c r="B7" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="147" t="s">
+      <c r="C7" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="147" t="s">
+      <c r="D7" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="E7" s="147" t="s">
+      <c r="E7" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="147" t="s">
+      <c r="F7" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="G7" s="147" t="s">
+      <c r="G7" s="98" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2880,40 +2990,35 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="147" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="147" t="s">
         <v>227</v>
       </c>
-      <c r="E9" s="136" t="s">
+      <c r="E9" s="147" t="s">
         <v>227</v>
       </c>
-      <c r="F9" s="136" t="s">
+      <c r="F9" s="147" t="s">
         <v>227</v>
       </c>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="147" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="137"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -2921,6 +3026,11 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2928,7 +3038,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Hoja11">
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="A2:E15"/>
@@ -2944,7 +3054,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="106" t="s">
         <v>229</v>
       </c>
       <c r="B2" s="92" t="s">
@@ -3147,8 +3257,651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja12">
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B1:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.42578125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="68" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="151" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
+    </row>
+    <row r="3" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="77"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+    </row>
+    <row r="4" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="154" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+    </row>
+    <row r="5" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="77"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+    </row>
+    <row r="6" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+    </row>
+    <row r="7" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="156" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+    </row>
+    <row r="8" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="78"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+    </row>
+    <row r="9" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="96"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+    </row>
+    <row r="11" spans="2:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="B11" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="99">
+        <v>14</v>
+      </c>
+      <c r="G11" s="99">
+        <v>6</v>
+      </c>
+      <c r="H11" s="99">
+        <v>0</v>
+      </c>
+      <c r="I11" s="99">
+        <f>SUM(F11:H11)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="158" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="99">
+        <v>14</v>
+      </c>
+      <c r="G12" s="99">
+        <v>6</v>
+      </c>
+      <c r="H12" s="99">
+        <v>0</v>
+      </c>
+      <c r="I12" s="99">
+        <f t="shared" ref="I12:I17" si="0">SUM(F12:H12)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="94" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="158" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="99">
+        <v>14</v>
+      </c>
+      <c r="G13" s="99">
+        <v>6</v>
+      </c>
+      <c r="H13" s="99">
+        <v>0</v>
+      </c>
+      <c r="I13" s="99">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="94" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="158" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="99" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="99">
+        <v>14</v>
+      </c>
+      <c r="G14" s="99">
+        <v>6</v>
+      </c>
+      <c r="H14" s="99">
+        <v>0</v>
+      </c>
+      <c r="I14" s="99">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="94" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="158"/>
+      <c r="D15" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="99" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="99">
+        <v>14</v>
+      </c>
+      <c r="G15" s="99">
+        <v>6</v>
+      </c>
+      <c r="H15" s="99">
+        <v>0</v>
+      </c>
+      <c r="I15" s="99">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="158" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="99" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="99">
+        <v>14</v>
+      </c>
+      <c r="G16" s="99">
+        <v>6</v>
+      </c>
+      <c r="H16" s="99">
+        <v>0</v>
+      </c>
+      <c r="I16" s="99">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="158" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="99" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="99">
+        <v>14</v>
+      </c>
+      <c r="G17" s="99">
+        <v>6</v>
+      </c>
+      <c r="H17" s="99">
+        <v>0</v>
+      </c>
+      <c r="I17" s="99">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="81"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+    </row>
+    <row r="19" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="77"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+    </row>
+    <row r="20" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="77"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+    </row>
+    <row r="21" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+    </row>
+    <row r="22" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+    </row>
+    <row r="23" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+    </row>
+    <row r="24" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="98" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+    </row>
+    <row r="25" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="98" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+    </row>
+    <row r="26" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="98"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+    </row>
+    <row r="27" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="98"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+    </row>
+    <row r="28" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="98"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+    </row>
+    <row r="29" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="103"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+    </row>
+    <row r="30" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="77"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+    </row>
+    <row r="31" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="98"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+    </row>
+    <row r="32" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="C32" s="98" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+    </row>
+    <row r="33" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="88" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+    </row>
+    <row r="34" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+    </row>
+    <row r="35" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" s="98" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+    </row>
+    <row r="36" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" s="98"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+    </row>
+    <row r="37" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37" s="98"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+    </row>
+    <row r="38" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="77"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+    </row>
+    <row r="39" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="77"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+    </row>
+    <row r="40" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="77"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+    </row>
+    <row r="41" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="77"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+    </row>
+    <row r="42" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="77"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+    </row>
+    <row r="43" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="96"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B7:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="B2:AN29"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
@@ -3189,73 +3942,73 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:40" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="121"/>
     </row>
     <row r="5" spans="2:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="125"/>
+      <c r="Z5" s="125"/>
+      <c r="AA5" s="125"/>
+      <c r="AB5" s="125"/>
+      <c r="AC5" s="125"/>
+      <c r="AD5" s="125"/>
+      <c r="AE5" s="125"/>
+      <c r="AF5" s="125"/>
     </row>
     <row r="6" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="57" t="s">
@@ -3402,41 +4155,41 @@
       <c r="AN7" s="40"/>
     </row>
     <row r="8" spans="2:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="103"/>
-      <c r="AF8" s="104"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="117"/>
       <c r="AG8" s="40"/>
       <c r="AH8" s="40"/>
       <c r="AI8" s="40"/>
@@ -3447,7 +4200,7 @@
       <c r="AN8" s="40"/>
     </row>
     <row r="9" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="114"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="47"/>
       <c r="D9" s="48"/>
       <c r="E9" s="52" t="s">
@@ -3498,39 +4251,39 @@
       <c r="AN9" s="40"/>
     </row>
     <row r="10" spans="2:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="114"/>
-      <c r="C10" s="105" t="s">
+      <c r="B10" s="127"/>
+      <c r="C10" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="106"/>
-      <c r="AF10" s="107"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="120"/>
       <c r="AG10" s="40"/>
       <c r="AH10" s="40"/>
       <c r="AI10" s="40"/>
@@ -3541,7 +4294,7 @@
       <c r="AN10" s="40"/>
     </row>
     <row r="11" spans="2:40" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="115"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="49"/>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
@@ -3609,44 +4362,44 @@
     </row>
     <row r="13" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="103"/>
-      <c r="T14" s="103"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="103"/>
-      <c r="W14" s="103"/>
-      <c r="X14" s="103"/>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="104"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="116"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="116"/>
+      <c r="AF14" s="117"/>
     </row>
     <row r="15" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="100"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="47"/>
       <c r="D15" s="48"/>
       <c r="E15" s="48" t="s">
@@ -3691,42 +4444,42 @@
       <c r="AF15" s="48"/>
     </row>
     <row r="16" spans="2:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="100"/>
-      <c r="C16" s="105" t="s">
+      <c r="B16" s="113"/>
+      <c r="C16" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="106"/>
-      <c r="AB16" s="106"/>
-      <c r="AC16" s="106"/>
-      <c r="AD16" s="106"/>
-      <c r="AE16" s="106"/>
-      <c r="AF16" s="107"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="119"/>
+      <c r="AA16" s="119"/>
+      <c r="AB16" s="119"/>
+      <c r="AC16" s="119"/>
+      <c r="AD16" s="119"/>
+      <c r="AE16" s="119"/>
+      <c r="AF16" s="120"/>
     </row>
     <row r="17" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="101"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="49"/>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
@@ -3764,44 +4517,44 @@
     </row>
     <row r="19" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="104"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="116"/>
+      <c r="AD20" s="116"/>
+      <c r="AE20" s="116"/>
+      <c r="AF20" s="117"/>
     </row>
     <row r="21" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="110"/>
+      <c r="B21" s="123"/>
       <c r="C21" s="47"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
@@ -3840,42 +4593,42 @@
       <c r="AF21" s="48"/>
     </row>
     <row r="22" spans="2:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="110"/>
-      <c r="C22" s="105" t="s">
+      <c r="B22" s="123"/>
+      <c r="C22" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="106"/>
-      <c r="AC22" s="106"/>
-      <c r="AD22" s="106"/>
-      <c r="AE22" s="106"/>
-      <c r="AF22" s="107"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="119"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="119"/>
+      <c r="Z22" s="119"/>
+      <c r="AA22" s="119"/>
+      <c r="AB22" s="119"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="119"/>
+      <c r="AE22" s="119"/>
+      <c r="AF22" s="120"/>
     </row>
     <row r="23" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="111"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="49"/>
       <c r="D23" s="50"/>
       <c r="E23" s="51" t="s">
@@ -3956,6 +4709,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="B2:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -3969,11 +4723,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40"/>
@@ -3983,10 +4737,10 @@
       <c r="B4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="118"/>
+      <c r="D4" s="131"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="66"/>
@@ -4033,11 +4787,11 @@
       <c r="D12" s="68"/>
     </row>
     <row r="14" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40"/>
@@ -4047,10 +4801,10 @@
       <c r="B16" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="118"/>
+      <c r="D16" s="131"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="66"/>
@@ -4129,21 +4883,21 @@
       <c r="D26" s="42"/>
     </row>
     <row r="29" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
     </row>
     <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="117" t="s">
+      <c r="C31" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="118"/>
+      <c r="D31" s="131"/>
     </row>
     <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="66"/>
@@ -4191,7 +4945,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Hoja4">
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="B1:I38"/>
@@ -4217,23 +4971,23 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="123"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="136"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="120"/>
+      <c r="C4" s="133"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="85" t="s">
@@ -4250,10 +5004,10 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="124"/>
+      <c r="C7" s="137"/>
       <c r="E7" s="77" t="s">
         <v>122</v>
       </c>
@@ -4633,7 +5387,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Hoja5">
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="B1:K43"/>
@@ -4657,23 +5411,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="129"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="142"/>
     </row>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="126"/>
+      <c r="C3" s="139"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="70" t="s">
@@ -5128,7 +5882,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Hoja6">
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="B2:K27"/>
@@ -5193,7 +5947,7 @@
       <c r="C7" s="81">
         <v>1</v>
       </c>
-      <c r="D7" s="130" t="s">
+      <c r="D7" s="143" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5204,7 +5958,7 @@
       <c r="C8" s="81">
         <v>1</v>
       </c>
-      <c r="D8" s="130"/>
+      <c r="D8" s="143"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="81" t="s">
@@ -5302,26 +6056,26 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="81" t="s">
@@ -5355,12 +6109,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Hoja7">
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="B4:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:G12"/>
     </sheetView>
   </sheetViews>
@@ -5397,32 +6151,32 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="145" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="145" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="145" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="132" t="s">
+      <c r="F5" s="145" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="132" t="s">
+      <c r="G5" s="145" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="135"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="92" t="s">
@@ -5505,35 +6259,40 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="147" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="147" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="136" t="s">
+      <c r="E11" s="147" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="136" t="s">
+      <c r="F11" s="147" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="147" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="137"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="D11:D12"/>
@@ -5541,11 +6300,6 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5553,7 +6307,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Hoja8">
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="B3:D16"/>
@@ -5718,20 +6472,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Hoja9">
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="B1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="114.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.28515625" style="77" customWidth="1"/>
     <col min="2" max="2" width="66" style="77" customWidth="1"/>
-    <col min="3" max="3" width="80.85546875" style="145" customWidth="1"/>
+    <col min="3" max="3" width="80.85546875" style="96" customWidth="1"/>
     <col min="4" max="4" width="30.85546875" style="77" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="77" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.140625" style="77" customWidth="1"/>
@@ -5742,46 +6496,46 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="142"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="154" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="146"/>
+      <c r="C6" s="97"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="78"/>
@@ -5796,7 +6550,7 @@
       <c r="D9" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="150" t="s">
+      <c r="E9" s="101" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="80" t="s">
@@ -5818,28 +6572,28 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="144" t="s">
+      <c r="C11" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="148" t="s">
+      <c r="D11" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="148">
+      <c r="F11" s="99">
         <v>5</v>
       </c>
-      <c r="G11" s="148">
+      <c r="G11" s="99">
         <v>4</v>
       </c>
-      <c r="H11" s="148">
+      <c r="H11" s="99">
         <v>0</v>
       </c>
-      <c r="I11" s="148">
+      <c r="I11" s="99">
         <f>SUM(F11:H11)</f>
         <v>9</v>
       </c>
@@ -5848,86 +6602,86 @@
       <c r="B12" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="147" t="s">
+      <c r="C12" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="148">
+      <c r="F12" s="99">
         <v>5</v>
       </c>
-      <c r="G12" s="148">
+      <c r="G12" s="99">
         <v>4</v>
       </c>
-      <c r="H12" s="148">
+      <c r="H12" s="99">
         <v>0</v>
       </c>
-      <c r="I12" s="148">
+      <c r="I12" s="99">
         <f t="shared" ref="I12" si="0">SUM(F12:H12)</f>
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="145" t="s">
+      <c r="C13" s="96" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="148" t="s">
+      <c r="D13" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="148" t="s">
+      <c r="E13" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="148">
+      <c r="F13" s="99">
         <v>5</v>
       </c>
-      <c r="G13" s="148">
+      <c r="G13" s="99">
         <v>4</v>
       </c>
-      <c r="H13" s="148">
+      <c r="H13" s="99">
         <v>0</v>
       </c>
-      <c r="I13" s="148">
+      <c r="I13" s="99">
         <f>SUM(F13:H13)</f>
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="147" t="s">
+      <c r="C14" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="148" t="s">
+      <c r="D14" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="148" t="s">
+      <c r="E14" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="148">
+      <c r="F14" s="99">
         <v>5</v>
       </c>
-      <c r="G14" s="148">
+      <c r="G14" s="99">
         <v>4</v>
       </c>
-      <c r="H14" s="148">
+      <c r="H14" s="99">
         <v>0</v>
       </c>
-      <c r="I14" s="148">
+      <c r="I14" s="99">
         <f>SUM(F14:H14)</f>
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="81"/>
-      <c r="C15" s="147"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
@@ -5942,7 +6696,7 @@
       <c r="B18" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="147" t="s">
+      <c r="C18" s="98" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5950,7 +6704,7 @@
       <c r="B19" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="147" t="s">
+      <c r="C19" s="98" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5958,7 +6712,7 @@
       <c r="B20" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="147" t="s">
+      <c r="C20" s="98" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5966,47 +6720,47 @@
       <c r="B21" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="147"/>
+      <c r="C21" s="98"/>
     </row>
     <row r="22" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="156" t="s">
+      <c r="B22" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="147"/>
+      <c r="C22" s="98"/>
     </row>
     <row r="23" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="147"/>
+      <c r="C23" s="98"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="156" t="s">
+      <c r="B24" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="147"/>
+      <c r="C24" s="98"/>
     </row>
     <row r="25" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="C25" s="147"/>
+      <c r="C25" s="98"/>
     </row>
     <row r="26" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="154"/>
-      <c r="C26" s="155"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="104"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="147"/>
+      <c r="C28" s="98"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="147" t="s">
+      <c r="C29" s="98" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6014,7 +6768,7 @@
       <c r="B30" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="147" t="s">
+      <c r="C30" s="98" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6022,7 +6776,7 @@
       <c r="B31" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="147" t="s">
+      <c r="C31" s="98" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6030,7 +6784,7 @@
       <c r="B32" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="147" t="s">
+      <c r="C32" s="98" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6038,7 +6792,7 @@
       <c r="B33" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="145" t="s">
+      <c r="C33" s="96" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6046,7 +6800,7 @@
       <c r="B34" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="147" t="s">
+      <c r="C34" s="98" t="s">
         <v>217</v>
       </c>
     </row>
